--- a/Uploads/PAXG-USD_1y.xlsx
+++ b/Uploads/PAXG-USD_1y.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,10 +459,10 @@
         <v>45785</v>
       </c>
       <c r="B2" t="n">
-        <v>3347.89</v>
+        <v>3347.87</v>
       </c>
       <c r="C2" t="n">
-        <v>9.126569999999999</v>
+        <v>9.14316</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         <v>45786</v>
       </c>
       <c r="B3" t="n">
-        <v>3373.81</v>
+        <v>3349.57</v>
       </c>
       <c r="C3" t="n">
-        <v>209.82959</v>
+        <v>209.84339</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         <v>45787</v>
       </c>
       <c r="B4" t="n">
-        <v>3336.65</v>
+        <v>3339.89</v>
       </c>
       <c r="C4" t="n">
-        <v>76.20431000000001</v>
+        <v>76.2043</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         <v>45788</v>
       </c>
       <c r="B5" t="n">
-        <v>3297.87</v>
+        <v>3300.19</v>
       </c>
       <c r="C5" t="n">
-        <v>222.05478</v>
+        <v>222.04772</v>
       </c>
     </row>
     <row r="6">
@@ -503,10 +503,10 @@
         <v>45789</v>
       </c>
       <c r="B6" t="n">
-        <v>3248.97</v>
+        <v>3259.29</v>
       </c>
       <c r="C6" t="n">
-        <v>138.76579</v>
+        <v>138.76836</v>
       </c>
     </row>
     <row r="7">
@@ -514,10 +514,10 @@
         <v>45790</v>
       </c>
       <c r="B7" t="n">
-        <v>3265.04</v>
+        <v>3269.63</v>
       </c>
       <c r="C7" t="n">
-        <v>51.18451</v>
+        <v>51.17584</v>
       </c>
     </row>
     <row r="8">
@@ -525,10 +525,10 @@
         <v>45791</v>
       </c>
       <c r="B8" t="n">
-        <v>3211.28</v>
+        <v>3216.15</v>
       </c>
       <c r="C8" t="n">
-        <v>73.71706</v>
+        <v>73.73108999999999</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +539,7 @@
         <v>3258.1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.63066</v>
+        <v>103.60088</v>
       </c>
     </row>
     <row r="10">
@@ -547,10 +547,10 @@
         <v>45793</v>
       </c>
       <c r="B10" t="n">
-        <v>3235.69</v>
+        <v>3229.34</v>
       </c>
       <c r="C10" t="n">
-        <v>39.8993</v>
+        <v>39.92669</v>
       </c>
     </row>
     <row r="11">
@@ -558,10 +558,10 @@
         <v>45794</v>
       </c>
       <c r="B11" t="n">
-        <v>3227.34</v>
+        <v>3233.72</v>
       </c>
       <c r="C11" t="n">
-        <v>41.47402</v>
+        <v>41.46961</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>3252.08</v>
       </c>
       <c r="C12" t="n">
-        <v>36.14505</v>
+        <v>36.15246</v>
       </c>
     </row>
     <row r="13">
@@ -580,10 +580,10 @@
         <v>45796</v>
       </c>
       <c r="B13" t="n">
-        <v>3239.58</v>
+        <v>3234.67</v>
       </c>
       <c r="C13" t="n">
-        <v>39.62694</v>
+        <v>39.62663</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         <v>3318.69</v>
       </c>
       <c r="C14" t="n">
-        <v>50.35527</v>
+        <v>50.35558</v>
       </c>
     </row>
     <row r="15">
@@ -602,10 +602,10 @@
         <v>45798</v>
       </c>
       <c r="B15" t="n">
-        <v>3319.96</v>
+        <v>3323.37</v>
       </c>
       <c r="C15" t="n">
-        <v>105.36187</v>
+        <v>105.32558</v>
       </c>
     </row>
     <row r="16">
@@ -613,10 +613,10 @@
         <v>45799</v>
       </c>
       <c r="B16" t="n">
-        <v>3315.13</v>
+        <v>3319.81</v>
       </c>
       <c r="C16" t="n">
-        <v>111.04815</v>
+        <v>111.0842</v>
       </c>
     </row>
     <row r="17">
@@ -624,10 +624,10 @@
         <v>45800</v>
       </c>
       <c r="B17" t="n">
-        <v>3375.2</v>
+        <v>3372.35</v>
       </c>
       <c r="C17" t="n">
-        <v>110.60632</v>
+        <v>110.6057</v>
       </c>
     </row>
     <row r="18">
@@ -635,10 +635,10 @@
         <v>45801</v>
       </c>
       <c r="B18" t="n">
-        <v>3371.34</v>
+        <v>3368.89</v>
       </c>
       <c r="C18" t="n">
-        <v>59.76667</v>
+        <v>59.76488</v>
       </c>
     </row>
     <row r="19">
@@ -646,10 +646,10 @@
         <v>45802</v>
       </c>
       <c r="B19" t="n">
-        <v>3358.23</v>
+        <v>3358.21</v>
       </c>
       <c r="C19" t="n">
-        <v>58.9031</v>
+        <v>58.90309</v>
       </c>
     </row>
     <row r="20">
@@ -657,10 +657,10 @@
         <v>45803</v>
       </c>
       <c r="B20" t="n">
-        <v>3362.45</v>
+        <v>3362.46</v>
       </c>
       <c r="C20" t="n">
-        <v>53.57479</v>
+        <v>53.57572</v>
       </c>
     </row>
     <row r="21">
@@ -668,10 +668,10 @@
         <v>45804</v>
       </c>
       <c r="B21" t="n">
-        <v>3322.6</v>
+        <v>3323.17</v>
       </c>
       <c r="C21" t="n">
-        <v>91.71288</v>
+        <v>91.71446</v>
       </c>
     </row>
     <row r="22">
@@ -679,10 +679,10 @@
         <v>45805</v>
       </c>
       <c r="B22" t="n">
-        <v>3281.8</v>
+        <v>3282.31</v>
       </c>
       <c r="C22" t="n">
-        <v>71.54327000000001</v>
+        <v>71.54209</v>
       </c>
     </row>
     <row r="23">
@@ -690,10 +690,10 @@
         <v>45806</v>
       </c>
       <c r="B23" t="n">
-        <v>3332.81</v>
+        <v>3332.89</v>
       </c>
       <c r="C23" t="n">
-        <v>59.54846</v>
+        <v>59.54254</v>
       </c>
     </row>
     <row r="24">
@@ -701,10 +701,10 @@
         <v>45807</v>
       </c>
       <c r="B24" t="n">
-        <v>3310.55</v>
+        <v>3309.71</v>
       </c>
       <c r="C24" t="n">
-        <v>82.73356</v>
+        <v>82.68340000000001</v>
       </c>
     </row>
     <row r="25">
@@ -712,10 +712,10 @@
         <v>45808</v>
       </c>
       <c r="B25" t="n">
-        <v>3306.02</v>
+        <v>3300.01</v>
       </c>
       <c r="C25" t="n">
-        <v>34.61081</v>
+        <v>34.66825</v>
       </c>
     </row>
     <row r="26">
@@ -723,10 +723,10 @@
         <v>45809</v>
       </c>
       <c r="B26" t="n">
-        <v>3329.97</v>
+        <v>3327.57</v>
       </c>
       <c r="C26" t="n">
-        <v>30.84542</v>
+        <v>30.84191</v>
       </c>
     </row>
     <row r="27">
@@ -734,10 +734,10 @@
         <v>45810</v>
       </c>
       <c r="B27" t="n">
-        <v>3405.1</v>
+        <v>3405.16</v>
       </c>
       <c r="C27" t="n">
-        <v>239.12467</v>
+        <v>239.1229</v>
       </c>
     </row>
     <row r="28">
@@ -748,7 +748,7 @@
         <v>3376.01</v>
       </c>
       <c r="C28" t="n">
-        <v>332.8971</v>
+        <v>332.89813</v>
       </c>
     </row>
     <row r="29">
@@ -756,10 +756,10 @@
         <v>45812</v>
       </c>
       <c r="B29" t="n">
-        <v>3392.93</v>
+        <v>3399.23</v>
       </c>
       <c r="C29" t="n">
-        <v>126.94051</v>
+        <v>126.94212</v>
       </c>
     </row>
     <row r="30">
@@ -767,10 +767,10 @@
         <v>45813</v>
       </c>
       <c r="B30" t="n">
-        <v>3380.09</v>
+        <v>3389.79</v>
       </c>
       <c r="C30" t="n">
-        <v>134.33719</v>
+        <v>134.28098</v>
       </c>
     </row>
     <row r="31">
@@ -778,10 +778,10 @@
         <v>45814</v>
       </c>
       <c r="B31" t="n">
-        <v>3342.64</v>
+        <v>3342.96</v>
       </c>
       <c r="C31" t="n">
-        <v>92.95323999999999</v>
+        <v>93.00957</v>
       </c>
     </row>
     <row r="32">
@@ -789,10 +789,10 @@
         <v>45815</v>
       </c>
       <c r="B32" t="n">
-        <v>3331.03</v>
+        <v>3329.24</v>
       </c>
       <c r="C32" t="n">
-        <v>28.35306</v>
+        <v>28.35524</v>
       </c>
     </row>
     <row r="33">
@@ -800,10 +800,10 @@
         <v>45816</v>
       </c>
       <c r="B33" t="n">
-        <v>3347.73</v>
+        <v>3339.22</v>
       </c>
       <c r="C33" t="n">
-        <v>68.79174</v>
+        <v>68.76338</v>
       </c>
     </row>
     <row r="34">
@@ -811,10 +811,10 @@
         <v>45817</v>
       </c>
       <c r="B34" t="n">
-        <v>3343.32</v>
+        <v>3342.48</v>
       </c>
       <c r="C34" t="n">
-        <v>23.0799</v>
+        <v>22.96174</v>
       </c>
     </row>
     <row r="35">
@@ -822,10 +822,10 @@
         <v>45818</v>
       </c>
       <c r="B35" t="n">
-        <v>3335.77</v>
+        <v>3343.49</v>
       </c>
       <c r="C35" t="n">
-        <v>60.08106</v>
+        <v>60.22099</v>
       </c>
     </row>
     <row r="36">
@@ -833,10 +833,10 @@
         <v>45819</v>
       </c>
       <c r="B36" t="n">
-        <v>3385.29</v>
+        <v>3379.47</v>
       </c>
       <c r="C36" t="n">
-        <v>31.73704</v>
+        <v>31.74411</v>
       </c>
     </row>
     <row r="37">
@@ -844,10 +844,10 @@
         <v>45820</v>
       </c>
       <c r="B37" t="n">
-        <v>3417</v>
+        <v>3418.57</v>
       </c>
       <c r="C37" t="n">
-        <v>126.45277</v>
+        <v>125.93658</v>
       </c>
     </row>
     <row r="38">
@@ -855,10 +855,10 @@
         <v>45821</v>
       </c>
       <c r="B38" t="n">
-        <v>3464.08</v>
+        <v>3464.73</v>
       </c>
       <c r="C38" t="n">
-        <v>517.34736</v>
+        <v>517.71158</v>
       </c>
     </row>
     <row r="39">
@@ -866,10 +866,10 @@
         <v>45822</v>
       </c>
       <c r="B39" t="n">
-        <v>3498.87</v>
+        <v>3496.29</v>
       </c>
       <c r="C39" t="n">
-        <v>56.20034</v>
+        <v>55.31921</v>
       </c>
     </row>
     <row r="40">
@@ -877,10 +877,10 @@
         <v>45823</v>
       </c>
       <c r="B40" t="n">
-        <v>3477.69</v>
+        <v>3484.38</v>
       </c>
       <c r="C40" t="n">
-        <v>87.17954</v>
+        <v>88.20544</v>
       </c>
     </row>
     <row r="41">
@@ -888,10 +888,10 @@
         <v>45824</v>
       </c>
       <c r="B41" t="n">
-        <v>3434.99</v>
+        <v>3435</v>
       </c>
       <c r="C41" t="n">
-        <v>209.95769</v>
+        <v>210.08291</v>
       </c>
     </row>
     <row r="42">
@@ -899,10 +899,10 @@
         <v>45825</v>
       </c>
       <c r="B42" t="n">
-        <v>3421.8</v>
+        <v>3423.7</v>
       </c>
       <c r="C42" t="n">
-        <v>201.27822</v>
+        <v>201.39901</v>
       </c>
     </row>
     <row r="43">
@@ -910,10 +910,197 @@
         <v>45826</v>
       </c>
       <c r="B43" t="n">
-        <v>3407.17</v>
+        <v>3400.59</v>
       </c>
       <c r="C43" t="n">
-        <v>3.07768</v>
+        <v>59.11957</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3395</v>
+      </c>
+      <c r="C44" t="n">
+        <v>94.59193</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3405.59</v>
+      </c>
+      <c r="C45" t="n">
+        <v>122.88625</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3393.93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>53.1642</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3402.91</v>
+      </c>
+      <c r="C47" t="n">
+        <v>308.56437</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3365.49</v>
+      </c>
+      <c r="C48" t="n">
+        <v>183.65658</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3347.05</v>
+      </c>
+      <c r="C49" t="n">
+        <v>184.06548</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3347.22</v>
+      </c>
+      <c r="C50" t="n">
+        <v>229.65986</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3337.55</v>
+      </c>
+      <c r="C51" t="n">
+        <v>50.0923</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3290.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>153.70281</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3288.54</v>
+      </c>
+      <c r="C53" t="n">
+        <v>43.18865</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3284.1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>31.03058</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3318.1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>55.39109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3349.65</v>
+      </c>
+      <c r="C56" t="n">
+        <v>74.94036</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3356.11</v>
+      </c>
+      <c r="C57" t="n">
+        <v>88.05893</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3341.51</v>
+      </c>
+      <c r="C58" t="n">
+        <v>52.159</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3340.01</v>
+      </c>
+      <c r="C59" t="n">
+        <v>22.01536</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45843</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3342.43</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.82193</v>
       </c>
     </row>
   </sheetData>
